--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="20330" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>文件名称</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>npc/kvConfig/npc_position_config.kv</t>
+  </si>
+  <si>
+    <t>pool_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/pool_config.kv</t>
+  </si>
+  <si>
+    <t>pool_group_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/pool_group_config.kv</t>
   </si>
   <si>
     <t>task_config</t>
@@ -193,8 +205,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -208,14 +220,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +289,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -258,98 +362,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -366,25 +378,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,37 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,115 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,17 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +611,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,20 +655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,145 +675,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,14 +1155,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1281,20 +1293,20 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1304,18 +1316,18 @@
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1349,20 +1361,20 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1372,18 +1384,18 @@
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1498,6 +1510,40 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1525,7 +1571,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1545,10 +1591,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1568,36 +1614,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1614,7 +1660,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="11580"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>文件名称</t>
   </si>
@@ -134,6 +134,18 @@
     <t>npc/building/building_round.kv</t>
   </si>
   <si>
+    <t>building_round_board</t>
+  </si>
+  <si>
+    <t>npc/building/building_round_board.kv</t>
+  </si>
+  <si>
+    <t>building_round_challenge</t>
+  </si>
+  <si>
+    <t>npc/building/building_round_challenge.kv</t>
+  </si>
+  <si>
     <t>building_unit_tower</t>
   </si>
   <si>
@@ -150,12 +162,6 @@
   </si>
   <si>
     <t>npc/building/building_config.kv</t>
-  </si>
-  <si>
-    <t>building_round_challenge</t>
-  </si>
-  <si>
-    <t>npc/building/building_round_challenge.kv</t>
   </si>
   <si>
     <t>building_unit_summoned</t>
@@ -205,8 +211,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -220,14 +226,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +331,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -250,22 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,82 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -378,187 +384,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +578,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,9 +628,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,28 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,145 +681,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,14 +1161,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1544,6 +1550,23 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1571,7 +1594,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1591,10 +1614,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1614,36 +1637,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1660,7 +1683,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>文件名称</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>npc/kvConfig/task_config.kv</t>
+  </si>
+  <si>
+    <t>lang_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/lang_config.kv</t>
   </si>
   <si>
     <t>enemy_units</t>
@@ -211,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -233,14 +239,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +254,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +290,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -268,106 +374,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,19 +396,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,25 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,127 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,11 +584,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,26 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,32 +658,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,145 +687,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,14 +1167,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1350,20 +1356,20 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1401,24 +1407,24 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1567,6 +1573,23 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1594,7 +1617,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1614,10 +1637,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1637,36 +1660,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1683,7 +1706,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>文件名称</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>npc/building/building_round_challenge.kv</t>
+  </si>
+  <si>
+    <t>building_round_board_challenge</t>
+  </si>
+  <si>
+    <t>npc/building/building_round_board_challenge.kv</t>
   </si>
   <si>
     <t>building_unit_tower</t>
@@ -217,10 +223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -232,6 +238,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -246,14 +290,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,21 +359,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -291,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,76 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,49 +396,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,133 +576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,80 +587,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,16 +613,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,137 +705,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -847,6 +853,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1167,20 +1176,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.4166666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.58333333333333" customWidth="1"/>
     <col min="4" max="5" width="8.75" customWidth="1"/>
   </cols>
@@ -1509,7 +1518,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1590,6 +1599,23 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1643,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1637,10 +1663,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1660,36 +1686,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1706,7 +1732,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>文件名称</t>
   </si>
@@ -92,10 +92,28 @@
     <t>npc/kvConfig/pool_group_config.kv</t>
   </si>
   <si>
+    <t>prop_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/prop_config.kv</t>
+  </si>
+  <si>
     <t>task_config</t>
   </si>
   <si>
     <t>npc/kvConfig/task_config.kv</t>
+  </si>
+  <si>
+    <t>population_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/population_config.kv</t>
+  </si>
+  <si>
+    <t>tech_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/tech_config.kv</t>
   </si>
   <si>
     <t>lang_config</t>
@@ -224,9 +242,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,6 +257,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +300,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,13 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -275,29 +352,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,19 +376,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,44 +392,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -396,19 +414,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,151 +540,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,21 +618,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -629,20 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +662,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,73 +723,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -780,58 +798,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,14 +1194,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1348,20 +1366,20 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1371,14 +1389,14 @@
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1388,14 +1406,14 @@
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1405,48 +1423,48 @@
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1456,14 +1474,14 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1473,18 +1491,18 @@
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1518,7 +1536,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1569,7 +1587,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1616,6 +1634,57 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1643,7 +1712,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1663,10 +1732,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1686,36 +1755,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1732,7 +1801,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="25005" windowHeight="15810"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>文件名称</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>npc/building/building_combination.kv</t>
+  </si>
+  <si>
+    <t>building_combination_ability</t>
+  </si>
+  <si>
+    <t>npc/building/building_combination_ability.kv</t>
   </si>
   <si>
     <t>building_item_card</t>
@@ -241,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -256,7 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +272,83 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,8 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,100 +376,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +390,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -414,12 +420,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,157 +486,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,15 +611,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,6 +625,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,32 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,17 +1200,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
@@ -1587,7 +1593,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1604,7 +1610,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1685,6 +1691,23 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1727,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="7.91666666666667" customWidth="1"/>
     <col min="3" max="4" width="19.75" customWidth="1"/>
@@ -1712,7 +1735,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1732,10 +1755,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1755,36 +1778,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1801,7 +1824,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25005" windowHeight="15810"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>文件名称</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>npc/kvConfig/prop_config.kv</t>
+  </si>
+  <si>
+    <t>effect_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/effect_config.kv</t>
   </si>
   <si>
     <t>task_config</t>
@@ -247,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -269,7 +275,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,8 +342,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +366,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,19 +381,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,66 +404,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,25 +426,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,49 +504,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,13 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,61 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,12 +607,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +617,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,6 +664,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,210 +717,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,17 +1206,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
@@ -1389,37 +1395,37 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1440,7 +1446,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1457,20 +1463,20 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1508,24 +1514,24 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1610,7 +1616,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1627,7 +1633,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1708,6 +1714,23 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1727,7 +1750,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="7.91666666666667" customWidth="1"/>
     <col min="3" max="4" width="19.75" customWidth="1"/>
@@ -1735,7 +1758,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1755,10 +1778,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1778,36 +1801,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1824,7 +1847,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -253,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,14 +268,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,8 +333,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,14 +374,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,14 +389,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -360,52 +405,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,25 +426,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,157 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,25 +620,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -648,7 +639,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,27 +659,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -713,7 +693,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,145 +723,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,11 +1209,11 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24225" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>文件名称</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>IsClient</t>
+  </si>
+  <si>
+    <t>dota_shipin</t>
+  </si>
+  <si>
+    <t>npc/dota/dota_shipin.kv</t>
   </si>
   <si>
     <t>dota_items</t>
@@ -254,9 +260,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,7 +274,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,98 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,23 +404,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,37 +432,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,133 +582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,30 +623,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,21 +637,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,7 +660,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,25 +723,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,17 +1212,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
@@ -1266,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1350,14 +1356,14 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1412,37 +1418,37 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1463,7 +1469,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1480,20 +1486,20 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1531,24 +1537,24 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1633,7 +1639,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1650,7 +1656,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1731,6 +1737,23 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1750,7 +1773,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="7.91666666666667" customWidth="1"/>
     <col min="3" max="4" width="19.75" customWidth="1"/>
@@ -1758,7 +1781,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1778,10 +1801,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1801,36 +1824,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1847,7 +1870,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>文件名称</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>npc/dota/dota_units.kv</t>
+  </si>
+  <si>
+    <t>shipin_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/shipin_config.kv</t>
   </si>
   <si>
     <t>item_config</t>
@@ -1212,14 +1218,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="C3:E3"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1272,13 +1278,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
@@ -1339,14 +1345,14 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1373,14 +1379,14 @@
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1435,37 +1441,37 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1486,7 +1492,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1503,20 +1509,20 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1554,24 +1560,24 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1656,7 +1662,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1673,7 +1679,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1754,6 +1760,23 @@
         <v>1</v>
       </c>
       <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1781,7 +1804,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1801,10 +1824,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1824,36 +1847,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1870,7 +1893,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="10935"/>
+    <workbookView windowWidth="24930" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>文件名称</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>npc/building/building_ability_tower.kv</t>
+  </si>
+  <si>
+    <t>courier_abilities</t>
+  </si>
+  <si>
+    <t>npc/abilities/courier_abilities.kv</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1218,17 +1224,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
@@ -1777,6 +1783,23 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1796,7 +1819,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="7.91666666666667" customWidth="1"/>
     <col min="3" max="4" width="19.75" customWidth="1"/>
@@ -1804,7 +1827,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1824,10 +1847,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1847,36 +1870,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1893,7 +1916,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11730"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>文件名称</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>npc/kvConfig/lang_config.kv</t>
+  </si>
+  <si>
+    <t>publicshop_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/publicshop_config.kv</t>
   </si>
   <si>
     <t>enemy_units</t>
@@ -1224,14 +1230,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33:E33"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1532,20 +1538,20 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1583,24 +1589,24 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1685,7 +1691,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1702,7 +1708,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1800,6 +1806,23 @@
         <v>1</v>
       </c>
       <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1827,7 +1850,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1847,10 +1870,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1870,36 +1893,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1916,7 +1939,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>文件名称</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>npc/units/common_units.kv</t>
+  </si>
+  <si>
+    <t>courier_units</t>
+  </si>
+  <si>
+    <t>npc/units/courier_units.kv</t>
   </si>
   <si>
     <t>building_combination</t>
@@ -1230,17 +1236,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
@@ -1606,7 +1612,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1623,7 +1629,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1708,7 +1714,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1725,7 +1731,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1823,6 +1829,23 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1842,7 +1865,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="7.91666666666667" customWidth="1"/>
     <col min="3" max="4" width="19.75" customWidth="1"/>
@@ -1850,7 +1873,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1870,10 +1893,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1893,36 +1916,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1939,7 +1962,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>文件名称</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>IsClient</t>
+  </si>
+  <si>
+    <t>npc_heroes_custom</t>
+  </si>
+  <si>
+    <t>npc/npc_heroes_custom.txt</t>
   </si>
   <si>
     <t>dota_shipin</t>
@@ -1236,17 +1242,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5083333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="43.5" style="7" customWidth="1"/>
@@ -1288,21 +1294,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:5">
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" s="3" customFormat="1" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1363,14 +1369,14 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1380,14 +1386,14 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1414,14 +1420,14 @@
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1476,37 +1482,37 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1527,7 +1533,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1561,20 +1567,20 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1618,18 +1624,18 @@
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1646,7 +1652,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1731,7 +1737,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1748,7 +1754,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1846,6 +1852,23 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +1888,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="7.91666666666667" customWidth="1"/>
     <col min="3" max="4" width="19.75" customWidth="1"/>
@@ -1873,7 +1896,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1893,10 +1916,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1916,36 +1939,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1962,7 +1985,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>文件名称</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>npc/kvConfig/prop_config.kv</t>
-  </si>
-  <si>
-    <t>effect_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/effect_config.kv</t>
   </si>
   <si>
     <t>task_config</t>
@@ -1242,14 +1236,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1482,37 +1476,37 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1533,7 +1527,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1567,20 +1561,20 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1624,18 +1618,18 @@
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1652,7 +1646,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1737,7 +1731,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1754,7 +1748,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1852,23 +1846,6 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1896,7 +1873,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1916,10 +1893,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1939,36 +1916,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1985,7 +1962,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>文件名称</t>
   </si>
@@ -110,30 +110,12 @@
     <t>npc/kvConfig/pool_group_config.kv</t>
   </si>
   <si>
-    <t>prop_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/prop_config.kv</t>
-  </si>
-  <si>
     <t>task_config</t>
   </si>
   <si>
     <t>npc/kvConfig/task_config.kv</t>
   </si>
   <si>
-    <t>population_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/population_config.kv</t>
-  </si>
-  <si>
-    <t>tech_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/tech_config.kv</t>
-  </si>
-  <si>
     <t>lang_config</t>
   </si>
   <si>
@@ -168,18 +150,6 @@
   </si>
   <si>
     <t>npc/units/courier_units.kv</t>
-  </si>
-  <si>
-    <t>building_combination</t>
-  </si>
-  <si>
-    <t>npc/building/building_combination.kv</t>
-  </si>
-  <si>
-    <t>building_combination_ability</t>
-  </si>
-  <si>
-    <t>npc/building/building_combination_ability.kv</t>
   </si>
   <si>
     <t>building_item_card</t>
@@ -1236,14 +1206,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1459,20 +1429,20 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1482,18 +1452,18 @@
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1516,48 +1486,48 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1567,14 +1537,14 @@
       <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1584,14 +1554,14 @@
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1601,14 +1571,14 @@
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1629,7 +1599,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1646,7 +1616,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1731,7 +1701,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1761,91 +1731,6 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1873,7 +1758,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1893,10 +1778,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1916,36 +1801,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1962,7 +1847,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -1213,7 +1213,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1299,14 +1299,14 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1316,14 +1316,14 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>文件名称</t>
   </si>
@@ -96,18 +96,6 @@
   </si>
   <si>
     <t>npc/kvConfig/npc_position_config.kv</t>
-  </si>
-  <si>
-    <t>pool_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/pool_config.kv</t>
-  </si>
-  <si>
-    <t>pool_group_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/pool_group_config.kv</t>
   </si>
   <si>
     <t>task_config</t>
@@ -1206,14 +1194,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:E6"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1395,24 +1383,24 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1435,48 +1423,48 @@
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1503,14 +1491,14 @@
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1520,14 +1508,14 @@
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1582,7 +1570,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1616,7 +1604,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1697,40 +1685,6 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1712,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1778,10 +1732,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1801,36 +1755,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1847,7 +1801,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -1201,7 +1201,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1474,14 +1474,14 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>文件名称</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>npc/abilities/courier_abilities.kv</t>
+  </si>
+  <si>
+    <t>imba_abilities</t>
+  </si>
+  <si>
+    <t>npc/abilities/imba_abilities.kv</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1194,14 +1200,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16:E16"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1685,6 +1691,23 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1735,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1732,10 +1755,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1755,36 +1778,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1801,7 +1824,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>文件名称</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>npc/abilities/imba_abilities.kv</t>
+  </si>
+  <si>
+    <t>imba_units</t>
+  </si>
+  <si>
+    <t>npc/units/imba_units.kv</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1200,14 +1206,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1708,6 +1714,23 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1735,7 +1758,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1755,10 +1778,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1778,36 +1801,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1824,7 +1847,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -122,12 +122,6 @@
     <t>npc/units/enemy_units.kv</t>
   </si>
   <si>
-    <t>avalon_items</t>
-  </si>
-  <si>
-    <t>npc/items/avalon_items.kv</t>
-  </si>
-  <si>
     <t>common_units</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>npc/units/imba_units.kv</t>
+  </si>
+  <si>
+    <t>imba_items</t>
+  </si>
+  <si>
+    <t>npc/items/imba_items.kv</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1469,14 +1469,14 @@
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>文件名称</t>
   </si>
@@ -116,12 +116,6 @@
     <t>npc/kvConfig/publicshop_config.kv</t>
   </si>
   <si>
-    <t>enemy_units</t>
-  </si>
-  <si>
-    <t>npc/units/enemy_units.kv</t>
-  </si>
-  <si>
     <t>common_units</t>
   </si>
   <si>
@@ -204,12 +198,6 @@
   </si>
   <si>
     <t>npc/abilities/imba_abilities.kv</t>
-  </si>
-  <si>
-    <t>imba_units</t>
-  </si>
-  <si>
-    <t>npc/units/imba_units.kv</t>
   </si>
   <si>
     <t>imba_items</t>
@@ -1206,14 +1194,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30:E30"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1452,14 +1440,14 @@
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1548,7 +1536,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1565,7 +1553,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1697,40 +1685,6 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1758,7 +1712,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1778,10 +1732,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1801,36 +1755,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1847,7 +1801,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>文件名称</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>npc/building/building_unit_enemy.kv</t>
-  </si>
-  <si>
-    <t>building_config</t>
-  </si>
-  <si>
-    <t>npc/building/building_config.kv</t>
   </si>
   <si>
     <t>building_unit_summoned</t>
@@ -1194,14 +1188,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:E28"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1668,23 +1662,6 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1712,7 +1689,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1732,10 +1709,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1755,36 +1732,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1801,7 +1778,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>文件名称</t>
   </si>
@@ -56,12 +56,6 @@
     <t>npc/npc_heroes_custom.txt</t>
   </si>
   <si>
-    <t>dota_shipin</t>
-  </si>
-  <si>
-    <t>npc/dota/dota_shipin.kv</t>
-  </si>
-  <si>
     <t>dota_items</t>
   </si>
   <si>
@@ -78,12 +72,6 @@
   </si>
   <si>
     <t>npc/dota/dota_units.kv</t>
-  </si>
-  <si>
-    <t>shipin_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/shipin_config.kv</t>
   </si>
   <si>
     <t>item_config</t>
@@ -1188,14 +1176,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1264,17 +1252,17 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:5">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1298,14 +1286,14 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1332,18 +1320,18 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1360,20 +1348,20 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1383,18 +1371,18 @@
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1411,7 +1399,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1496,7 +1484,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1530,7 +1518,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1628,40 +1616,6 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1689,7 +1643,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1709,10 +1663,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1732,36 +1686,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1778,7 +1732,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>文件名称</t>
   </si>
@@ -120,30 +120,6 @@
   </si>
   <si>
     <t>npc/building/building_item_card.kv</t>
-  </si>
-  <si>
-    <t>building_round</t>
-  </si>
-  <si>
-    <t>npc/building/building_round.kv</t>
-  </si>
-  <si>
-    <t>building_round_board</t>
-  </si>
-  <si>
-    <t>npc/building/building_round_board.kv</t>
-  </si>
-  <si>
-    <t>building_round_challenge</t>
-  </si>
-  <si>
-    <t>npc/building/building_round_challenge.kv</t>
-  </si>
-  <si>
-    <t>building_round_board_challenge</t>
-  </si>
-  <si>
-    <t>npc/building/building_round_board_challenge.kv</t>
   </si>
   <si>
     <t>building_unit_tower</t>
@@ -835,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -853,9 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1176,14 +1149,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1484,7 +1457,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1548,74 +1521,6 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1643,7 +1548,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1663,10 +1568,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1686,36 +1591,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1732,7 +1637,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>文件名称</t>
   </si>
@@ -80,12 +80,6 @@
     <t>npc/kvConfig/item_config.kv</t>
   </si>
   <si>
-    <t>npc_position_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/npc_position_config.kv</t>
-  </si>
-  <si>
     <t>task_config</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
   </si>
   <si>
     <t>npc/kvConfig/lang_config.kv</t>
-  </si>
-  <si>
-    <t>publicshop_config</t>
-  </si>
-  <si>
-    <t>npc/kvConfig/publicshop_config.kv</t>
   </si>
   <si>
     <t>common_units</t>
@@ -1149,14 +1137,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1287,7 +1275,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1310,18 +1298,18 @@
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1338,7 +1326,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1487,40 +1475,6 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1548,7 +1502,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1568,10 +1522,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1591,36 +1545,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1637,7 +1591,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>文件名称</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>npc/items/imba_items.kv</t>
+  </si>
+  <si>
+    <t>artifact_items</t>
+  </si>
+  <si>
+    <t>npc/items/artifact_items.kv</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1137,14 +1143,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1475,6 +1481,23 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1525,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1522,10 +1545,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1545,36 +1568,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1591,7 +1614,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>文件名称</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>npc/items/artifact_items.kv</t>
+  </si>
+  <si>
+    <t>imba_item_recipes</t>
+  </si>
+  <si>
+    <t>npc/items/imba_item_recipes.kv</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1143,14 +1149,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1498,6 +1504,23 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1525,7 +1548,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1545,10 +1568,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1568,36 +1591,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1614,7 +1637,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>文件名称</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>npc/kvConfig/lang_config.kv</t>
+  </si>
+  <si>
+    <t>shipin_config</t>
+  </si>
+  <si>
+    <t>npc/kvConfig/shipin_config.kv</t>
   </si>
   <si>
     <t>common_units</t>
@@ -1149,14 +1155,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1321,20 +1327,20 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1521,6 +1527,23 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1548,7 +1571,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1568,10 +1591,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1591,36 +1614,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1637,7 +1660,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kv_config.xlsx
+++ b/code/excels/kv_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>文件名称</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>npc/building/building_item_card.kv</t>
+  </si>
+  <si>
+    <t>building_unit_boss</t>
+  </si>
+  <si>
+    <t>npc/building/building_unit_boss.kv</t>
   </si>
   <si>
     <t>building_unit_tower</t>
@@ -1155,14 +1161,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1544,6 +1550,23 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1571,7 +1594,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1591,10 +1614,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1614,36 +1637,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -1660,7 +1683,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
